--- a/results/I3_N5_M2_T30_C150_DepLowerLeft_s2_res.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepLowerLeft_s2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>615.0072073662005</v>
+        <v>436.5914380881763</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.749000072479248</v>
+        <v>0.6080000400543213</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.545957665445231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.32172694346256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>364.5800000000069</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>214.06</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,17 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -863,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17.93504247831763</v>
+        <v>12.28173377703811</v>
       </c>
     </row>
     <row r="4">
@@ -871,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17.27021167277385</v>
+        <v>11.61690297149432</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.97645744572761</v>
+        <v>10.32314874444808</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -953,34 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1082,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>192.0400000000009</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
@@ -1093,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>177.55</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -1104,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>178.1100000000006</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
@@ -1115,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>179.610000000002</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
@@ -1126,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>185.0800000000017</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12">
@@ -1137,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>151.0650000000005</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -1148,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>143.15</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -1159,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>141.6400000000012</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
@@ -1170,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>144.1900000000023</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1181,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>145.6100000000025</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
@@ -1192,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>147.3399999999986</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18">
@@ -1203,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>159.2050000000005</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19">
@@ -1214,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>140.4300000000003</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20">
@@ -1225,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>157.7</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21">
@@ -1236,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>152.9950000000001</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22">
@@ -1247,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>106.1700000000004</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
@@ -1258,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>112.4900000000004</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -1269,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.5700000000015</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
@@ -1280,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>110.05</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
@@ -1291,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>107.6750000000004</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
@@ -1302,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>46.62000000000076</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1313,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>41.47500000000033</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -1324,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>37.92500000000105</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
@@ -1335,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>39.65500000000061</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1346,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>43.76000000000018</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1357,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>192.0400000000002</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33">
@@ -1368,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>177.55</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34">
@@ -1379,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>178.1099999999999</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35">
@@ -1390,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>179.6100000000017</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36">
@@ -1401,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>185.0800000000011</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37">
@@ -1412,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>147.3399999999986</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38">
@@ -1423,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>159.2050000000005</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39">
@@ -1434,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>140.4300000000003</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40">
@@ -1445,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>157.7</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41">
@@ -1456,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>152.9950000000001</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1503,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>42.04000000000019</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -1514,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>27.55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -1525,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>28.1099999999999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1536,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>29.61000000000172</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -1547,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>35.08000000000106</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -1569,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>9.205000000000496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1591,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>7.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1602,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>2.995000000000061</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1649,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1660,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.635</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1671,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.825</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1682,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.09</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1693,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1704,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1715,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1726,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1737,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1748,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1869,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5.615</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1880,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2.875</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1891,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1902,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1913,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.04</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1927,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2007,50 +1968,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
